--- a/medicine/Pharmacie/Coumaphène/Coumaphène.xlsx
+++ b/medicine/Pharmacie/Coumaphène/Coumaphène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coumaph%C3%A8ne</t>
+          <t>Coumaphène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le coumaphène ou warfarine (C19H16O4) est un composé organique de la famille des coumarines. C'est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet rodenticide, avec toutefois de possibles phénomènes de résistance aux rodenticides.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coumaph%C3%A8ne</t>
+          <t>Coumaphène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur le plan de la réglementation des produits phytopharmaceutiques :
 pour l’Union européenne : cette substance active est inscrite à l’annexe I de la directive 91/414/CEE par la directive 2006/5/CE.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coumaph%C3%A8ne</t>
+          <t>Coumaphène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les caractéristiques physico-chimiques dont l'ordre de grandeur est indiqué ci-après, influencent les risques de transfert de cette substance active vers les eaux, et le risque de pollution des eaux :
 Solubilité : 17 mg·L-1,</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coumaph%C3%A8ne</t>
+          <t>Coumaphène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Usage en médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La warfarine est aussi la dénomination commune internationale d’un médicament de la classe des antivitaminiques K (dérivés coumariniques). Une dénomination commerciale connue est la Coumadine. Il s'agit de l'anticoagulant oral le plus prescrit aux États-Unis, du moins, jusqu'en 2011[4].
-Comme pour les autres antivitamines K, son utilisation doit être contrôlée par la mesure régulière de l'INR. La variabilité des doses nécessaires pour une personne donnée peut être secondaire à l'alimentation ou à la prise concomitante d'autres médicaments. Elle peut être également génétique. Plusieurs mutations de gènes sont ainsi potentialisateurs ou inhibiteurs. Les plus importants touchent le VKORC1 (codant la « vitamin K epoxide reductase complex 1 ») et le CYP2C9 (codant le cytochrome P450 2C9)[5].
-L'INR est plus difficilement équilibré, avec un risque supérieur d'hémorragie, chez l'afro-américain[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La warfarine est aussi la dénomination commune internationale d’un médicament de la classe des antivitaminiques K (dérivés coumariniques). Une dénomination commerciale connue est la Coumadine. Il s'agit de l'anticoagulant oral le plus prescrit aux États-Unis, du moins, jusqu'en 2011.
+Comme pour les autres antivitamines K, son utilisation doit être contrôlée par la mesure régulière de l'INR. La variabilité des doses nécessaires pour une personne donnée peut être secondaire à l'alimentation ou à la prise concomitante d'autres médicaments. Elle peut être également génétique. Plusieurs mutations de gènes sont ainsi potentialisateurs ou inhibiteurs. Les plus importants touchent le VKORC1 (codant la « vitamin K epoxide reductase complex 1 ») et le CYP2C9 (codant le cytochrome P450 2C9).
+L'INR est plus difficilement équilibré, avec un risque supérieur d'hémorragie, chez l'afro-américain.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coumaph%C3%A8ne</t>
+          <t>Coumaphène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sur le plan de l’écotoxicologie, les concentrations létales 50 (CL50) dont l'ordre de grandeur est indiqué ci-après, sont observées :
 CL50 sur poissons : 14 mg·L-1,</t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coumaph%C3%A8ne</t>
+          <t>Coumaphène</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coumaphène fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coumaphène fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Coumaph%C3%A8ne</t>
+          <t>Coumaphène</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,9 +692,11 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La warfarine contient un stéréocentre et se compose donc de deux énantiomères. Pratiquement c'est le racémique, c'est-à-dire le mélange 1:1 des formes (R) et (S) qui est utilisé[8]:
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La warfarine contient un stéréocentre et se compose donc de deux énantiomères. Pratiquement c'est le racémique, c'est-à-dire le mélange 1:1 des formes (R) et (S) qui est utilisé:
 </t>
         </is>
       </c>
